--- a/Data_(on)verzekered.xlsx
+++ b/Data_(on)verzekered.xlsx
@@ -193,7 +193,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
     <numFmt numFmtId="165" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +204,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -250,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,13 +279,16 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -592,7 +601,7 @@
   <cols>
     <col min="1" max="1" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="10" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="25.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">

--- a/Data_(on)verzekered.xlsx
+++ b/Data_(on)verzekered.xlsx
@@ -182,7 +182,7 @@
     <t>uninsured</t>
   </si>
   <si>
-    <t>insured</t>
+    <t xml:space="preserve">insured </t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
     <numFmt numFmtId="165" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,12 +204,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -279,7 +273,7 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
